--- a/biology/Botanique/Campomanesia_aromatica/Campomanesia_aromatica.xlsx
+++ b/biology/Botanique/Campomanesia_aromatica/Campomanesia_aromatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campomanesia aromatica est une espèce de plantes à fleurs de la famille des Myrtaceae (famille du Goyavier). C'est un arbuste néotropical. 
-Il est connu en Guyane sous les noms de Goyavier grand bois[3] , Goyavier citronnelle, Bois citronnelle (créole), Pirimaβan (Palikur)[4], mais aussi ailleurs sous les noms de Cadeia-brava[5], Guabiraba[6] ou Guabiraba-amarela[7] au Brésil, guabirá en Bolivie[8], Guayabita arrayán au Venezuela[9].
+Il est connu en Guyane sous les noms de Goyavier grand bois , Goyavier citronnelle, Bois citronnelle (créole), Pirimaβan (Palikur), mais aussi ailleurs sous les noms de Cadeia-brava, Guabiraba ou Guabiraba-amarela au Brésil, guabirá en Bolivie, Guayabita arrayán au Venezuela.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Campomanesia aromatica est un arbuste ou un arbre haut de 2–20 mètres. Ses feuilles sont simples, opposées, caduques, à nervation secondaire et tertiaire imprimées sur la face supérieure. Il fleurit lorsque les feuilles sont immatures. Sa fleur comporte un pédoncule large de 0,3 à 0,5 millimètre, un calice avec des lobes larges de 1,2–3,2 millimètres, généralement moins de 100 étamines, un disque de 3 à 3,5 millimètres de diamètre, un style long de 4–7 millimètres, un ovaire renfermant 4–6 loges. Les fruits pourpre-noir à maturité, mesurent environ 1 centimètre de diamètre, contiennent une pulpe comestible, décrite comme sucrée et aromatique. Les fruits sont consommés par les singes[10],[11],[12],[13].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Campomanesia aromatica est un arbuste ou un arbre haut de 2–20 mètres. Ses feuilles sont simples, opposées, caduques, à nervation secondaire et tertiaire imprimées sur la face supérieure. Il fleurit lorsque les feuilles sont immatures. Sa fleur comporte un pédoncule large de 0,3 à 0,5 millimètre, un calice avec des lobes larges de 1,2–3,2 millimètres, généralement moins de 100 étamines, un disque de 3 à 3,5 millimètres de diamètre, un style long de 4–7 millimètres, un ovaire renfermant 4–6 loges. Les fruits pourpre-noir à maturité, mesurent environ 1 centimètre de diamètre, contiennent une pulpe comestible, décrite comme sucrée et aromatique. Les fruits sont consommés par les singes.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Campomanesia aromatica dans les forêts de plaine caducifoliées (ex : Caatinga) à sempervirentes, et les savanes entre 50–300 m d'altitude, depuis le Venezuela jusqu'à la Bolivie amazonienne, et de Trinidad à la côte du Brésil jusqu'à Bahia en passant par le Guyana, le Suriname et la Guyane[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Campomanesia aromatica dans les forêts de plaine caducifoliées (ex : Caatinga) à sempervirentes, et les savanes entre 50–300 m d'altitude, depuis le Venezuela jusqu'à la Bolivie amazonienne, et de Trinidad à la côte du Brésil jusqu'à Bahia en passant par le Guyana, le Suriname et la Guyane.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est considérée par l'UICN comme menacée (vulnérable) au Brésil, car elle souffre d'une disparition majeure de son habitat naturel (forêts côtières de Bahia, cerrado)[14].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est considérée par l'UICN comme menacée (vulnérable) au Brésil, car elle souffre d'une disparition majeure de son habitat naturel (forêts côtières de Bahia, cerrado).
 </t>
         </is>
       </c>
@@ -605,13 +623,15 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les baies de Campomanesia aromatica, âcres, astringentes[3] et sucrées sont comestibles, particulièrement appréciées des enfants, et servent au Brésil à préparer des jus de fruits épais (simberebas ou cambicas)[15] commercialisés à petite échelle dans l'État de Sergipe (municipalités de Lagarto et Itabaiana)[5].
-Ses feuilles sont utilisées en Guyane pour fabriquer un remède contre le paludisme[16]. Son écorce est utilisée comme un déodorant chez les Palikur, mais aussi en cataplasme pour relaxer les jambes enflées et douloureuses, et pour préparer des bains tonifiants[4]. Ces bains toniques parfumés sont aussi signalés par Aublet chez les cayennais au XVIIIe siècle[17].
-Campomanesia aromatica est une des plantes comptant le plus grand nombre d'utilisations médicinales traditionnelles chez les populations Busi-nenge du Suriname : contre la fièvre, pour laver, rafraîchir et guérir le vagin après l'accouchement, pour accroître le plaisir sexuel (en bain de vapeur pour ses vertus astringente raffermissant le vagin)[18], pour soulager les dysménorrhées, pour donner de la force et éloigner le mal[19].
-Campomanesia aromatica aurait aussi des propriétés médicinales dans le traitement des maladies cardiaques[7], et présenterait à ce titre un potentiel économique non négligeable[20].
-C'est une plante mellifère très appréciée par les abeilles au Brésil[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les baies de Campomanesia aromatica, âcres, astringentes et sucrées sont comestibles, particulièrement appréciées des enfants, et servent au Brésil à préparer des jus de fruits épais (simberebas ou cambicas) commercialisés à petite échelle dans l'État de Sergipe (municipalités de Lagarto et Itabaiana).
+Ses feuilles sont utilisées en Guyane pour fabriquer un remède contre le paludisme. Son écorce est utilisée comme un déodorant chez les Palikur, mais aussi en cataplasme pour relaxer les jambes enflées et douloureuses, et pour préparer des bains tonifiants. Ces bains toniques parfumés sont aussi signalés par Aublet chez les cayennais au XVIIIe siècle.
+Campomanesia aromatica est une des plantes comptant le plus grand nombre d'utilisations médicinales traditionnelles chez les populations Busi-nenge du Suriname : contre la fièvre, pour laver, rafraîchir et guérir le vagin après l'accouchement, pour accroître le plaisir sexuel (en bain de vapeur pour ses vertus astringente raffermissant le vagin), pour soulager les dysménorrhées, pour donner de la force et éloigner le mal.
+Campomanesia aromatica aurait aussi des propriétés médicinales dans le traitement des maladies cardiaques, et présenterait à ce titre un potentiel économique non négligeable.
+C'est une plante mellifère très appréciée par les abeilles au Brésil.
 </t>
         </is>
       </c>
@@ -640,9 +660,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante pour Campomanesia aromatica[17] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante pour Campomanesia aromatica : 
 « 2. PSIDIUM (aromaticum) foliis ovatis, acuminatis, fructu dulci, ceraſi formâ. (Tabula 191.) 
 Arbor mediocris, trunco quinque-pedali, in ſummitate ramoſo ; ramis hínc &amp; indè ſparſis ; ramulis tetragonis, folioſis. Folia ovato-oblonga, acuminata, glabra, integerrima, brevi petiolata. Flores ſolitarii, oppoſiti, in axillis foliorum breviſſimorum primo erumpentium, prope baſim ramuſculorum. Corolla alba, tetra aut pentapetala. 
 Fructus aromaticus, edulis, bacca ſphærica, lutea, calicis denticulis coronata, quadrilocularis.
